--- a/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
+++ b/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around\application\controllers\excel-templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FEB5DC-3E51-4CE5-94F3-A1BA8AE1F86E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Customer Name</t>
   </si>
@@ -68,24 +77,64 @@
   </si>
   <si>
     <t>{bookings:admin_remarks}</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Alt Phone Number</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Model Number</t>
+  </si>
+  <si>
+    <t>{bookings:request_type}</t>
+  </si>
+  <si>
+    <t>{bookings:model_numbers}</t>
+  </si>
+  <si>
+    <t>{bookings:appliance_brand}</t>
+  </si>
+  <si>
+    <t>{bookings:booking_address}</t>
+  </si>
+  <si>
+    <t>{bookings:booking_alternate_contact_no}</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>{bookings:internal_status}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,123 +142,473 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.43"/>
-    <col customWidth="1" min="2" max="2" width="15.86"/>
-    <col customWidth="1" min="3" max="3" width="20.57"/>
-    <col customWidth="1" min="4" max="5" width="15.86"/>
-    <col customWidth="1" min="6" max="6" width="18.71"/>
-    <col customWidth="1" min="7" max="7" width="19.86"/>
-    <col customWidth="1" min="8" max="8" width="15.57"/>
-    <col customWidth="1" min="9" max="9" width="19.14"/>
-    <col customWidth="1" min="10" max="10" width="16.0"/>
+    <col min="2" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
+++ b/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FEB5DC-3E51-4CE5-94F3-A1BA8AE1F86E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C48C3F-FF96-486D-B760-E004766B0837}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Customer Name</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>{bookings:internal_status}</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>{bookings:booking_remarks}</t>
   </si>
 </sst>
 </file>
@@ -488,26 +494,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="2" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" customWidth="1"/>
     <col min="16" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -556,8 +562,11 @@
       <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -605,6 +614,9 @@
       </c>
       <c r="P2" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
+++ b/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around\application\controllers\excel-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C48C3F-FF96-486D-B760-E004766B0837}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A322CC-71E9-47A1-8B54-7C32D9E48B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Customer Name</t>
   </si>
@@ -109,9 +109,6 @@
     <t>{bookings:booking_alternate_contact_no}</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>{bookings:internal_status}</t>
   </si>
   <si>
@@ -119,13 +116,22 @@
   </si>
   <si>
     <t>{bookings:booking_remarks}</t>
+  </si>
+  <si>
+    <t>Internal Status</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>{bookings:current_status}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -141,6 +147,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +198,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,129 +518,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
+++ b/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A322CC-71E9-47A1-8B54-7C32D9E48B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186113AB-DDBC-41E2-8FFB-052084A681A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Customer Name</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>{bookings:current_status}</t>
+  </si>
+  <si>
+    <t>Engineer Name</t>
+  </si>
+  <si>
+    <t>{bookings:eng_name}</t>
   </si>
 </sst>
 </file>
@@ -518,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -533,14 +539,17 @@
     <col min="6" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="9" width="20.5546875" customWidth="1"/>
     <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="37.109375" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -575,28 +584,31 @@
         <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -631,24 +643,27 @@
         <v>11</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>31</v>
       </c>
     </row>

--- a/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
+++ b/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186113AB-DDBC-41E2-8FFB-052084A681A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9DCCB2-1B1E-4A53-9321-62997582A8A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,80 +526,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="37.109375" customWidth="1"/>
-    <col min="13" max="13" width="24.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.88671875" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="12" max="12" width="34.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="24.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.88671875" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>32</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
@@ -609,56 +611,56 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>29</v>
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>18</v>

--- a/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
+++ b/application/controllers/excel-templates/SF-Pending-Bookings-List-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dev\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9DCCB2-1B1E-4A53-9321-62997582A8A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30321E70-A60C-49E6-9C6E-C47D639B7351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Customer Name</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>{bookings:eng_name}</t>
+  </si>
+  <si>
+    <t>Booking Create Date</t>
+  </si>
+  <si>
+    <t>{bookings:create_date}</t>
   </si>
 </sst>
 </file>
@@ -524,34 +530,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" customWidth="1"/>
-    <col min="12" max="12" width="34.5546875" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -559,58 +565,61 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -618,54 +627,57 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
